--- a/project/uploads/70/12/REVIEW_ReviewResult_666_12.xlsx
+++ b/project/uploads/70/12/REVIEW_ReviewResult_666_12.xlsx
@@ -1,46 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Compressed\web-program\web-program\project\uploads\70\12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA2F3E3-9A05-469B-B5D0-AF99B4A7FB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="7332" yWindow="984" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
+  <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
   </futureMetadata>
-  <cellMetadata count="1">
+  <valueMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
-  </cellMetadata>
+  </valueMetadata>
 </metadata>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,11 +103,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,40 +503,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>5</v>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A5"/>
+    <ignoredError sqref="A1:A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>